--- a/biology/Biochimie/Uréase/Uréase.xlsx
+++ b/biology/Biochimie/Uréase/Uréase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ur%C3%A9ase</t>
+          <t>Uréase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>L'uréase (découverte en 1876 par Musculus[2]) est une enzyme qui catalyse la réaction de transformation de l'urée en dioxyde de carbone et ammoniac :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>L'uréase (découverte en 1876 par Musculus) est une enzyme qui catalyse la réaction de transformation de l'urée en dioxyde de carbone et ammoniac :
 (NH2)2CO + H2O → CO2 + 2 NH3.
 L'uréase est présente chez des bactéries, des levures et chez certaines plantes.
 Cette enzyme est un critère biochimique de différenciation très utilisé lors de l'identification bactérienne.
